--- a/data/elm_winter_2022/raw_data/Winter Quarter on-call schedule preference (Responses).xlsx
+++ b/data/elm_winter_2022/raw_data/Winter Quarter on-call schedule preference (Responses).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winston/Desktop/schedule-finder/data/elm_winter_2022/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76B2049-6FAA-0343-AABC-91C4297EB2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2215EAF0-4AD3-B64A-BEE3-540159C537F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11880" yWindow="500" windowWidth="26340" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="51">
   <si>
     <t>Timestamp</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Additional comments</t>
-  </si>
-  <si>
-    <t>Vivian</t>
   </si>
   <si>
     <t>I prefer not to have this day (-1)</t>
@@ -137,9 +134,6 @@
     <t>Justyna Swierz</t>
   </si>
   <si>
-    <t>Aspen</t>
-  </si>
-  <si>
     <t>I am actually free on Wednesdays except for 1/12 and 1/19 (I have class on 1/12 and 1/19)</t>
   </si>
   <si>
@@ -159,6 +153,26 @@
   </si>
   <si>
     <t>First mondays of every month i have clubs late outside of the building so i prefer to not have first mondays, i also have work till usually 5pm on thursdays and saturdays so those are usually best for me to be secondary, on sundays i have work till 3pm with a 30 minute commute back to campus so i could do primaries then hoping that i dont stay late at work.</t>
+  </si>
+  <si>
+    <t>Jasmine Matchawate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To explain my situation for weekday on-call: 
+- Mondays would be my most ideal/preferred weekday to be on-call (and some Tuesdays are okay). Other weekday evenings I will have a commitment to my RSO and classes that run later, however I can correlate to miss a few club meetings if needed. 
+- Also, I will be unavailable on Friday nights until 2/11 this quarter due to a mentorship program that I am in that runs until 5 pm. </t>
+  </si>
+  <si>
+    <t>Niem Vo</t>
+  </si>
+  <si>
+    <t>I am unavailable on Fridays once again, so please only schedule me on Saturdays for weekend on-call. :)</t>
+  </si>
+  <si>
+    <t>Vivian Yu</t>
+  </si>
+  <si>
+    <t>Aspen Tong</t>
   </si>
   <si>
     <t>Weekday on-call preferences [Monday]</t>
@@ -203,11 +217,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,18 +443,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="21.5" customWidth="1"/>
+    <col min="1" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
+    <col min="8" max="8" width="34.5" customWidth="1"/>
+    <col min="9" max="9" width="27.5" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
     <col min="11" max="11" width="24.6640625" customWidth="1"/>
-    <col min="12" max="35" width="21.5" customWidth="1"/>
+    <col min="12" max="17" width="21.5" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="28" width="21.5" customWidth="1"/>
+    <col min="29" max="29" width="53.83203125" customWidth="1"/>
+    <col min="30" max="35" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -451,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -534,88 +563,88 @@
         <v>44531.883358599538</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB2" s="3">
         <v>2</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -623,88 +652,88 @@
         <v>44531.902649131946</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB3" s="3">
         <v>3</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -712,82 +741,82 @@
         <v>44533.50329857639</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB4" s="3">
         <v>3</v>
@@ -798,88 +827,88 @@
         <v>44535.824601377317</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB5" s="3">
         <v>3</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -887,82 +916,82 @@
         <v>44535.825076562498</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB6" s="3">
         <v>3</v>
@@ -973,82 +1002,82 @@
         <v>44535.826903506946</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB7" s="3">
         <v>3</v>
@@ -1059,88 +1088,88 @@
         <v>44536.714925312495</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB8" s="3">
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1148,64 +1177,266 @@
         <v>44554.500280474538</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB9" s="3">
         <v>2</v>
       </c>
       <c r="AC9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>44557.665217199072</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="4" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>44558.49504736111</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
